--- a/res/page/月票管理/MonthTicketPage.xlsx
+++ b/res/page/月票管理/MonthTicketPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>别名</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>//div[@class='functional-btn-box']//span[contains(text(),'请选择停车场')]</t>
+  </si>
+  <si>
+    <t>重新同步</t>
+  </si>
+  <si>
+    <t>//div[@id='supportParkTable']//span[text()='重新同步']</t>
+  </si>
+  <si>
+    <t>同步详情列表</t>
+  </si>
+  <si>
+    <t>//div[@id='supportParkTable']</t>
+  </si>
+  <si>
+    <t>关闭-提示</t>
+  </si>
+  <si>
+    <t>//button[text()='关闭']</t>
   </si>
 </sst>
 </file>
@@ -284,6 +302,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -292,16 +318,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,50 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -374,15 +394,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,11 +417,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,17 +432,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,187 +461,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +666,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,45 +715,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -749,6 +747,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,16 +787,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,76 +805,73 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,41 +880,44 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +934,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1665,7 +1686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" ht="22" customHeight="1" spans="1:3">
+    <row r="36" ht="24" customHeight="1" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" ht="23" customHeight="1" spans="1:3">
+    <row r="37" ht="24" customHeight="1" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1685,6 +1706,39 @@
       </c>
       <c r="C37" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/月票管理/MonthTicketPage.xlsx
+++ b/res/page/月票管理/MonthTicketPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>别名</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'后一天')]</t>
+  </si>
+  <si>
+    <t>后一周</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'后一周')]</t>
   </si>
   <si>
     <t>允许车主向前续费</t>
@@ -302,6 +308,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -311,51 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +414,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -403,29 +439,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -438,13 +451,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -461,6 +467,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,19 +509,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,30 +593,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,18 +605,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -570,60 +630,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,6 +677,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -681,21 +717,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +739,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -729,30 +759,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,137 +793,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,9 +940,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,10 +1290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1599,7 +1602,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1621,7 +1624,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1631,8 +1634,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A31" s="3" t="s">
+    <row r="31" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1675,7 +1678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="1:3">
+    <row r="35" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1709,36 +1712,47 @@
       </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="1:3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/月票管理/MonthTicketPage.xlsx
+++ b/res/page/月票管理/MonthTicketPage.xlsx
@@ -195,7 +195,7 @@
     <t>单价</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'单价')]/following-sibling::*[1]//input</t>
+    <t>//*[@id="app"]//div[@class='el-form-item']/label[contains(text(),'单价')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>月票数量</t>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -308,8 +308,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,34 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -360,80 +430,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,7 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,43 +467,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,139 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +676,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -691,6 +715,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -702,21 +735,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,17 +756,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -757,19 +768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,7 +1011,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1292,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
